--- a/document/2-数据/2.1.4 数据设计-表格-v2.xlsx
+++ b/document/2-数据/2.1.4 数据设计-表格-v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="21900" windowHeight="8460" tabRatio="806" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="结构" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="518">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,1465 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛春杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛春杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统相关数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛春杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通内容数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛春杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE_WIDTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE_HEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXTURE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATERIAL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位图编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_MATERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_TEXTURE_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXTURE_BITMAP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>设计项目资源表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计项目场景表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource3d.mesh.buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>433df8a7ab8ccc882334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb8a7ab8ccc882334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\type_code\{yyyymmdd}\code\version.{type_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg/png/psd/dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型网格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GVID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局版本标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODEL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MESH_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_MODEL_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGcData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_LENGTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_STRIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_STRIDE = sizeof(ELEMENT_TYPE_CD) * ELEMENT_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_LENGTH = DATA_STRIDE * DATA_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENT_DATA_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORMAT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有文件放在个人目录下。 [最好能使用 Git/SVN 等版本管理工具]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture\Bitmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model\Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照 github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\person\project\version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model导入 (FBX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TemplateEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享后才进入数据库统一管理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有资源通过 GUID 进行关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUID(40字符 Group[3]-Modul[3]-GUID[32])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\person\project\{catalog}\{guid}\{version}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_BITMAP_IMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源位图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源位图图片表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BITMAP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D纹理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEXTURE_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D纹理位图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位图编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RES_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质纹理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D场景表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_SOL_PROJECT_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_SYS_SESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D主题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVE_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEMPLATE_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板主题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D场景表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEME_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板材质表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_ANIMATION_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D动画表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D动画跟踪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_ANIMATION_ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D动画动作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANIMATION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_BEGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D跟踪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BONE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨头编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STREAM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MESH_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MESH_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MESH_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格跟踪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEME_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATERIAL_GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质分组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refer:DT_RS3_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refer:DT_RS3_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_TEMPLATE_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模板材质组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_PSN_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧总长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧间隔</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙皮编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF: DT_RS3_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF:DT_RS3_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型骨骼表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF: DT_RS3_MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼蒙皮表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_SKIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MODEL_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D模型动画表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANIMATION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF: DT_RS3_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKELETON_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼动画表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MATERIAL_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D材质纹理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKELETON_SKIN_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼蒙皮数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_MESH_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格蒙皮表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SKELETON_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKELETON_SKIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STREAM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼蒙皮编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_SKELETON_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用：DT_RS3_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME_SPAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D跟踪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTLINE_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTLINE_MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮廓最小点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮廓最大点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNELS</t>
+  </si>
+  <si>
+    <t>通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML字符串（需要超过64K容量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RS3_SCENE_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D场景主题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCENE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_SOL_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案项目表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_CATALOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源目录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATALOG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_PREVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_SOL_PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_CATALOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_TEXTURE_BITMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_ANIMATION_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_ANIMATION_ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_SKELETON_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_SKELETON_SKIN_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MESH_STREAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MESH_SKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MESH_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MODEL_MESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MODEL_SKELETON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MODEL_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MATERIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_MATERIAL_TEXTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_TEMPLATE_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_TEMPLATE_MATERIAL_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_SCENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_SCENE_THEME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_SOL_PROJECT_RESOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼蒙皮数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D骨骼蒙皮表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_PSN_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数据表列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,23 +2052,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D纹理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D纹理位图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D动画表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D动画跟踪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D动画动作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格数据流表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格蒙皮表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源3D网格跟踪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_ANIMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_RES_SKELETON_ANIMATION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -617,1350 +2108,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毛春杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户数据存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛春杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统相关数据存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛春杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通内容数据存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛春杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网格编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIZE_WIDTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIZE_HEIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXTURE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_TEXTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纹理编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D材质表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATERIAL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位图编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_MATERIAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_TEXTURE_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXTURE_BITMAP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>用户</t>
-  </si>
-  <si>
-    <t>设计项目资源表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计项目场景表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEXTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MATERIAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource3d.mesh.buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>433df8a7ab8ccc882334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb8a7ab8ccc882334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\type_code\{yyyymmdd}\code\version.{type_name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jpg/png/psd/dat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型网格表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GVID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局版本标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODEL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESH_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEMENT_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_MODEL_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGcData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_LENGTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_STRIDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_STRIDE = sizeof(ELEMENT_TYPE_CD) * ELEMENT_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_LENGTH = DATA_STRIDE * DATA_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELEMENT_DATA_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEMPLATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模板表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORMAT_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有文件放在个人目录下。 [最好能使用 Git/SVN 等版本管理工具]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texture\Bitmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model\Mesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照 github</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\person\project\version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model导入 (FBX)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneEditor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContentManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TemplateEditor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板编辑器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteEditor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵编辑器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景编辑器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容管理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享后才进入数据库统一管理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有资源通过 GUID 进行关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUID(40字符 Group[3]-Modul[3]-GUID[32])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\person\project\{catalog}\{guid}\{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_BITMAP_IMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源位图表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源位图图片表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BITMAP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D纹理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEXTURE_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D纹理位图表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位图编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RES_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D材质纹理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XML字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SCENE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D场景表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模板表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_SOL_PROJECT_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_SOL_PROJECT_SCENE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC_SYS_SESSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_THEME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D材质表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D主题表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTIVE_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEMPLATE_THEME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SCENE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模板主题表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D场景表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMPLATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THEME_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模板材质表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_ANIMATION_TRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D动画表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D动画跟踪表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_ANIMATION_ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D动画动作表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANIMATION_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_BEGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始帧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束帧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D跟踪表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BONE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRACK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨头编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D纹理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D数据流表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STREAM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据流编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D网格表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D网格数据流表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MESH_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网格编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH_TRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D网格跟踪表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_TRACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FULL_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MATERIAL_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D材质组表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FULL_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THEME_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATERIAL_GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质分组编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refer:DT_RS3_THEME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refer:DT_RS3_MATERIAL_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_TEMPLATE_MATERIAL_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模板材质组表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质组编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_PSN_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_TOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧总长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧间隔</t>
-  </si>
-  <si>
-    <t>LABEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙皮编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D骨骼表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKELETON_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨骼编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REF: DT_RS3_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_PSN_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REF:DT_RS3_ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型骨骼表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REF: DT_RS3_MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D骨骼表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D骨骼蒙皮表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKELETON_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKELETON_SKIN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D动画表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D模型动画表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANIMATION_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REF: DT_RS3_ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKELETON_ANIMATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D骨骼动画表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MATERIAL_TEXTURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D材质纹理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKELETON_SKIN_STREAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D骨骼蒙皮数据流表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MESH_SKIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D网格蒙皮表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_MODEL_MESH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SKELETON_SKIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKELETON_SKIN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STREAM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨骼编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据流编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨骼蒙皮编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_SKELETON_SKIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用：DT_RS3_SKELETON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME_SPAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帧时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D跟踪表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FULL_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FULL_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTLINE_MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTLINE_MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮廓最小点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮廓最大点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_BITMAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEYWORDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FULL_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENT</t>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNELS</t>
-  </si>
-  <si>
-    <t>通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XML字符串（需要超过64K容量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RS3_SCENE_THEME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源3D场景主题表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCENE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_SOL_PROJECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案项目表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_RESOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT_RES_CATALOG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源目录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CATALOG_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FROM_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FROM_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAS_PREVIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有预览</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2253,7 +2401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2445,6 +2593,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4289,14 +4438,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="23" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4315,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -4332,7 +4481,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -4361,7 +4510,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -4385,7 +4534,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="48"/>
@@ -4430,7 +4579,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -4449,17 +4598,17 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="69">
-        <f t="shared" ref="A7:A17" si="1">ROW()-3</f>
+        <f t="shared" ref="A7:A20" si="1">ROW()-3</f>
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -4477,13 +4626,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -4501,10 +4650,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>16</v>
@@ -4553,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>55</v>
@@ -4579,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D12" s="70" t="s">
         <v>16</v>
@@ -4600,76 +4749,76 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13">
+      <c r="A13" s="29">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>42031</v>
-      </c>
-      <c r="I13" s="54" t="s">
+      <c r="E13" s="30">
+        <v>80</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22">
+        <v>42012</v>
+      </c>
+      <c r="I13" s="53" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="13">
+      <c r="A14" s="29">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9">
+      <c r="B14" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="22">
         <v>42012</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="53" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13">
+      <c r="A15" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9">
+      <c r="B15" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22">
         <v>42012</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="53" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4679,45 +4828,119 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2000</v>
+      </c>
       <c r="F16" s="48"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9">
-        <v>42012</v>
+        <v>42031</v>
       </c>
       <c r="I16" s="54" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A17" s="15">
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A20" s="15">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17">
+      <c r="E20" s="16"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17">
         <v>42012</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I20" s="55" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4747,7 +4970,7 @@
       <selection activeCell="G34" sqref="G34"/>
       <selection pane="topRight" activeCell="G34" sqref="G34"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD8"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4766,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -4783,7 +5006,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -4812,7 +5035,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -4881,7 +5104,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -4904,13 +5127,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -4928,13 +5151,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -4952,17 +5175,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="22">
@@ -4978,7 +5201,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>58</v>
@@ -5004,7 +5227,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>55</v>
@@ -5030,10 +5253,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>16</v>
@@ -5054,10 +5277,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>29</v>
@@ -5078,10 +5301,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>29</v>
@@ -5280,7 +5503,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -5309,7 +5532,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -5378,7 +5601,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -5401,13 +5624,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -5425,13 +5648,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -5475,10 +5698,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D10" s="70" t="s">
         <v>16</v>
@@ -5527,10 +5750,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D12" s="70" t="s">
         <v>16</v>
@@ -5553,13 +5776,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E13" s="70"/>
       <c r="F13" s="71"/>
@@ -5739,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -5756,7 +5979,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -5785,7 +6008,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -5854,7 +6077,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -5877,13 +6100,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -5901,13 +6124,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -5925,20 +6148,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H9" s="22">
         <v>42012</v>
@@ -5953,20 +6176,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H10" s="22">
         <v>42012</v>
@@ -5981,7 +6204,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>58</v>
@@ -6007,13 +6230,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="71"/>
@@ -6057,10 +6280,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="D14" s="70" t="s">
         <v>16</v>
@@ -6070,7 +6293,7 @@
       </c>
       <c r="F14" s="71"/>
       <c r="G14" s="70" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H14" s="72">
         <v>42068</v>
@@ -6247,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -6264,7 +6487,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -6293,7 +6516,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -6362,7 +6585,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -6385,10 +6608,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -6411,13 +6634,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -6435,13 +6658,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
@@ -6485,10 +6708,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>16</v>
@@ -6511,13 +6734,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="49"/>
@@ -6535,10 +6758,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>207</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>212</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>29</v>
@@ -6559,10 +6782,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>29</v>
@@ -6570,7 +6793,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="49"/>
       <c r="G14" s="30" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H14" s="22">
         <v>42031</v>
@@ -6585,10 +6808,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>29</v>
@@ -6609,10 +6832,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>29</v>
@@ -6620,7 +6843,7 @@
       <c r="E16" s="30"/>
       <c r="F16" s="49"/>
       <c r="G16" s="30" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H16" s="22">
         <v>42031</v>
@@ -6796,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -6813,7 +7036,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -6842,7 +7065,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -6911,7 +7134,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -6934,13 +7157,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -6958,13 +7181,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -7008,10 +7231,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D10" s="70" t="s">
         <v>16</v>
@@ -7060,13 +7283,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="49"/>
@@ -7084,13 +7307,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="49"/>
@@ -7108,13 +7331,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="49"/>
@@ -7293,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -7310,7 +7533,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -7339,7 +7562,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -7408,7 +7631,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -7431,13 +7654,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -7455,13 +7678,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -7479,7 +7702,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>58</v>
@@ -7531,13 +7754,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49"/>
@@ -7555,13 +7778,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="49"/>
@@ -7579,13 +7802,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="49"/>
@@ -7764,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -7781,7 +8004,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -7810,7 +8033,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -7879,7 +8102,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -7902,13 +8125,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -7926,13 +8149,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -7950,20 +8173,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H9" s="22">
         <v>42031</v>
@@ -7978,17 +8201,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="22">
@@ -8004,17 +8227,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="22">
@@ -8243,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -8260,7 +8483,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -8289,7 +8512,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -8358,7 +8581,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -8381,13 +8604,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -8405,13 +8628,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -8429,20 +8652,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H9" s="22">
         <v>42031</v>
@@ -8509,13 +8732,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="49"/>
@@ -8533,13 +8756,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="49"/>
@@ -8557,13 +8780,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="49"/>
@@ -8743,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -8760,7 +8983,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -8789,7 +9012,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -8858,7 +9081,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -8881,13 +9104,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -8905,13 +9128,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -8955,10 +9178,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>16</v>
@@ -8981,10 +9204,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>16</v>
@@ -9007,13 +9230,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="49"/>
@@ -9531,7 +9754,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -9548,7 +9771,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -9577,7 +9800,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -9646,7 +9869,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -9669,13 +9892,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -9693,13 +9916,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -9717,18 +9940,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49"/>
       <c r="G9" s="30" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H9" s="22">
         <v>42040</v>
@@ -9769,10 +9992,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>16</v>
@@ -9798,7 +10021,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>16</v>
@@ -9821,13 +10044,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="49"/>
@@ -10007,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -10024,7 +10247,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -10053,7 +10276,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -10122,7 +10345,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -10145,13 +10368,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -10169,13 +10392,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -10193,20 +10416,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H9" s="22">
         <v>42040</v>
@@ -10221,20 +10444,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H10" s="22">
         <v>42040</v>
@@ -10249,20 +10472,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H11" s="22">
         <v>42040</v>
@@ -10439,7 +10662,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -10456,7 +10679,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -10485,7 +10708,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -10554,7 +10777,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -10577,13 +10800,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -10601,13 +10824,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -10625,20 +10848,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H9" s="22">
         <v>42040</v>
@@ -10653,20 +10876,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="H10" s="22">
         <v>42039</v>
@@ -10842,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -10859,7 +11082,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -10888,7 +11111,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -10957,7 +11180,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -10980,13 +11203,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -11004,13 +11227,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -11054,10 +11277,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>16</v>
@@ -11106,13 +11329,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="E12" s="30">
         <v>80</v>
@@ -11132,13 +11355,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="E13" s="30">
         <v>80</v>
@@ -11158,10 +11381,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D14" s="70" t="s">
         <v>96</v>
@@ -11184,13 +11407,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="49"/>
@@ -11370,7 +11593,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -11387,7 +11610,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -11416,7 +11639,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -11485,7 +11708,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -11508,13 +11731,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -11532,13 +11755,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -11556,20 +11779,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H9" s="22">
         <v>42031</v>
@@ -11584,20 +11807,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H10" s="22">
         <v>42031</v>
@@ -11612,13 +11835,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="71"/>
@@ -11798,7 +12021,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -11815,7 +12038,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -11844,7 +12067,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -11913,7 +12136,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -11936,13 +12159,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -11960,13 +12183,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -11984,20 +12207,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H9" s="22">
         <v>42031</v>
@@ -12012,20 +12235,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="H10" s="22">
         <v>42031</v>
@@ -12040,20 +12263,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H11" s="22">
         <v>42031</v>
@@ -12230,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -12247,7 +12470,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -12276,7 +12499,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -12345,7 +12568,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -12368,13 +12591,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -12392,13 +12615,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -12416,20 +12639,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H9" s="22">
         <v>42039</v>
@@ -12444,20 +12667,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H10" s="22">
         <v>42039</v>
@@ -12472,13 +12695,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="71">
@@ -12498,13 +12721,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="71">
@@ -12685,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -12702,7 +12925,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -12731,7 +12954,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -12800,7 +13023,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -12823,13 +13046,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -12847,13 +13070,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -12897,10 +13120,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D10" s="70" t="s">
         <v>16</v>
@@ -12949,10 +13172,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D12" s="70" t="s">
         <v>96</v>
@@ -12975,13 +13198,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E13" s="70"/>
       <c r="F13" s="71"/>
@@ -13160,7 +13383,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -13177,7 +13400,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -13206,7 +13429,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -13275,7 +13498,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -13298,10 +13521,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -13324,13 +13547,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -13348,13 +13571,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
@@ -13372,17 +13595,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="22">
@@ -13398,10 +13621,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>17</v>
@@ -13424,13 +13647,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="71"/>
@@ -13448,13 +13671,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="E13" s="70"/>
       <c r="F13" s="71">
@@ -13474,13 +13697,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="E14" s="70"/>
       <c r="F14" s="71">
@@ -13661,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -13678,7 +13901,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -13707,7 +13930,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -13776,7 +13999,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -13799,10 +14022,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -13825,13 +14048,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -13849,13 +14072,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
@@ -13873,20 +14096,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H10" s="22">
         <v>42031</v>
@@ -13901,20 +14124,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H11" s="22">
         <v>42031</v>
@@ -14118,22 +14341,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="F3" s="6">
         <v>41830</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -14142,22 +14365,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="F4" s="6">
         <v>41830</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -14166,22 +14389,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="F5" s="6">
         <v>41830</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14190,16 +14413,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F6" s="6">
         <v>41830</v>
@@ -14522,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -14539,7 +14762,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -14568,7 +14791,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -14637,7 +14860,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -14660,10 +14883,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -14686,13 +14909,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -14710,13 +14933,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
@@ -14734,20 +14957,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H10" s="22">
         <v>42031</v>
@@ -14762,20 +14985,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="H11" s="22">
         <v>42031</v>
@@ -14951,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -14968,7 +15191,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -14997,7 +15220,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -15066,7 +15289,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -15089,13 +15312,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -15113,13 +15336,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -15163,10 +15386,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D10" s="70" t="s">
         <v>16</v>
@@ -15215,10 +15438,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D12" s="70" t="s">
         <v>96</v>
@@ -15252,7 +15475,7 @@
       <c r="E13" s="30"/>
       <c r="F13" s="49"/>
       <c r="G13" s="30" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H13" s="22">
         <v>42033</v>
@@ -15428,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -15445,7 +15668,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -15474,7 +15697,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -15543,7 +15766,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -15566,13 +15789,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -15590,13 +15813,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -15640,10 +15863,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>16</v>
@@ -15870,7 +16093,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -15899,7 +16122,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -15968,7 +16191,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -15991,10 +16214,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -16017,13 +16240,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -16041,13 +16264,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
@@ -16065,18 +16288,18 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49"/>
       <c r="G10" s="30" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H10" s="22">
         <v>42012</v>
@@ -16091,18 +16314,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49"/>
       <c r="G11" s="30" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H11" s="22">
         <v>42012</v>
@@ -16143,10 +16366,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>16</v>
@@ -16195,10 +16418,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D15" s="70" t="s">
         <v>96</v>
@@ -16221,18 +16444,18 @@
         <v>13</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="49"/>
       <c r="G16" s="30" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H16" s="22">
         <v>42012</v>
@@ -16409,7 +16632,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -16426,7 +16649,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -16455,7 +16678,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -16547,13 +16770,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E7" s="70"/>
       <c r="F7" s="71"/>
@@ -16571,13 +16794,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -16595,20 +16818,20 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H9" s="22">
         <v>42012</v>
@@ -16623,7 +16846,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>58</v>
@@ -16649,10 +16872,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>16</v>
@@ -16675,10 +16898,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>17</v>
@@ -16686,7 +16909,7 @@
       <c r="E12" s="30"/>
       <c r="F12" s="49"/>
       <c r="G12" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H12" s="22">
         <v>42012</v>
@@ -16701,10 +16924,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>17</v>
@@ -16712,7 +16935,7 @@
       <c r="E13" s="30"/>
       <c r="F13" s="49"/>
       <c r="G13" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H13" s="22">
         <v>42012</v>
@@ -16888,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -16905,7 +17128,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -16934,7 +17157,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -17003,7 +17226,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -17026,10 +17249,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -17052,13 +17275,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -17076,13 +17299,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
@@ -17126,10 +17349,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D11" s="70" t="s">
         <v>16</v>
@@ -17178,10 +17401,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D13" s="70" t="s">
         <v>96</v>
@@ -17215,7 +17438,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="49"/>
       <c r="G14" s="30" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="H14" s="22">
         <v>42033</v>
@@ -17391,7 +17614,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -17408,7 +17631,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -17437,7 +17660,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -17506,7 +17729,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -17529,10 +17752,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -17555,13 +17778,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -17579,13 +17802,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
@@ -17603,13 +17826,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49"/>
@@ -17627,13 +17850,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49"/>
@@ -17651,13 +17874,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="49"/>
@@ -17836,7 +18059,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -17853,7 +18076,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -17882,7 +18105,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -17951,7 +18174,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -17974,10 +18197,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -18000,13 +18223,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -18024,13 +18247,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
@@ -18048,13 +18271,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="49"/>
@@ -18072,13 +18295,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>340</v>
-      </c>
       <c r="D11" s="30" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="49"/>
@@ -18257,7 +18480,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -18274,7 +18497,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -18303,7 +18526,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -18372,7 +18595,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -18395,10 +18618,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -18421,13 +18644,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="71"/>
@@ -18445,13 +18668,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
@@ -18495,10 +18718,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D11" s="70" t="s">
         <v>16</v>
@@ -18547,10 +18770,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D13" s="70" t="s">
         <v>96</v>
@@ -18584,7 +18807,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="49"/>
       <c r="G14" s="30" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="H14" s="22">
         <v>42033</v>
@@ -18760,7 +18983,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -18777,7 +19000,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -18806,7 +19029,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -18875,7 +19098,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -18898,10 +19121,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -18927,7 +19150,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D8" s="70" t="s">
         <v>17</v>
@@ -18948,10 +19171,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D9" s="70" t="s">
         <v>17</v>
@@ -18972,10 +19195,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D10" s="70" t="s">
         <v>17</v>
@@ -19022,10 +19245,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D12" s="70" t="s">
         <v>16</v>
@@ -19074,10 +19297,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D14" s="70" t="s">
         <v>16</v>
@@ -19111,7 +19334,7 @@
       <c r="E15" s="70"/>
       <c r="F15" s="71"/>
       <c r="G15" s="70" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="H15" s="72">
         <v>42068</v>
@@ -19261,12 +19484,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19280,7 +19503,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="75" t="s">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -19291,7 +19514,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="78" t="s">
-        <v>136</v>
+        <v>502</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -19329,40 +19552,41 @@
         <v>1</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>359</v>
+        <v>500</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>142</v>
+        <v>516</v>
       </c>
       <c r="F4" s="65">
         <v>42090</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="63">
-        <f t="shared" ref="A5:A53" si="1">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>179</v>
+        <v>33</v>
+      </c>
+      <c r="C5" s="64" t="str">
+        <f>IFERROR(VLOOKUP(MID(D5,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v>资源</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F5" s="65">
         <v>42090</v>
@@ -19371,10 +19595,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -19390,10 +19611,10 @@
         <v>资源</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F6" s="65">
         <v>42090</v>
@@ -19418,10 +19639,10 @@
         <v>资源</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F7" s="65">
         <v>42090</v>
@@ -19446,52 +19667,55 @@
         <v>资源</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>461</v>
+        <v>245</v>
       </c>
       <c r="F8" s="65">
-        <v>42090</v>
+        <v>42032</v>
       </c>
       <c r="G8" s="66" t="s">
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="63">
+      <c r="A9" s="67">
         <f>ROW()-3</f>
         <v>6</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>33</v>
+        <v>503</v>
       </c>
       <c r="C9" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D9,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v>资源</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>419</v>
+      <c r="D9" s="87" t="s">
+        <v>471</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>250</v>
+        <v>504</v>
       </c>
       <c r="F9" s="65">
-        <v>42032</v>
+        <v>42030</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J9" t="s">
-        <v>225</v>
+      <c r="I9" t="s">
+        <v>227</v>
+      </c>
+      <c r="L9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="63">
-        <f>ROW()-3</f>
+      <c r="A10" s="67">
+        <f t="shared" ref="A9:A52" si="1">ROW()-3</f>
         <v>7</v>
       </c>
       <c r="B10" s="64" t="s">
@@ -19502,16 +19726,19 @@
         <v>资源</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>249</v>
+        <v>472</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>251</v>
+        <v>505</v>
       </c>
       <c r="F10" s="65">
-        <v>42032</v>
+        <v>42030</v>
       </c>
       <c r="G10" s="66" t="s">
         <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -19519,30 +19746,25 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="64" t="str">
+      <c r="B11" s="68" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D11,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C11" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D11,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>186</v>
+        <v>473</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>308</v>
+        <v>506</v>
       </c>
       <c r="F11" s="65">
-        <v>42030</v>
+        <v>42039</v>
       </c>
       <c r="G11" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>232</v>
-      </c>
-      <c r="L11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -19550,27 +19772,25 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B12" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="64" t="str">
+      <c r="B12" s="68" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D12,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
+      </c>
+      <c r="C12" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D12,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>254</v>
+        <v>474</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="F12" s="65">
-        <v>42030</v>
+        <v>42039</v>
       </c>
       <c r="G12" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -19578,25 +19798,28 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B13" s="68" t="str">
+      <c r="B13" s="64" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D13,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C13" s="68" t="str">
+      <c r="C13" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D13,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>310</v>
+        <v>514</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>311</v>
+        <v>507</v>
       </c>
       <c r="F13" s="65">
         <v>42039</v>
       </c>
       <c r="G13" s="66" t="s">
         <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -19610,19 +19833,25 @@
       </c>
       <c r="C14" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D14,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>302</v>
+        <v>475</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>406</v>
+        <v>508</v>
       </c>
       <c r="F14" s="65">
         <v>42039</v>
       </c>
       <c r="G14" s="66" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -19630,19 +19859,19 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="64" t="str">
+      <c r="B15" s="68" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D15,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C15" s="64" t="str">
+      <c r="C15" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D15,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>284</v>
+        <v>476</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>373</v>
+        <v>509</v>
       </c>
       <c r="F15" s="65">
         <v>42039</v>
@@ -19650,8 +19879,8 @@
       <c r="G15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I15" t="s">
-        <v>231</v>
+      <c r="J15" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -19665,25 +19894,19 @@
       </c>
       <c r="C16" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D16,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>285</v>
+        <v>477</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
       <c r="F16" s="65">
-        <v>42039</v>
+        <v>42040</v>
       </c>
       <c r="G16" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -19697,22 +19920,19 @@
       </c>
       <c r="C17" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D17,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>288</v>
+        <v>478</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>289</v>
+        <v>499</v>
       </c>
       <c r="F17" s="65">
-        <v>42039</v>
+        <v>42040</v>
       </c>
       <c r="G17" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="J17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -19726,13 +19946,13 @@
       </c>
       <c r="C18" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D18,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="F18" s="65">
         <v>42040</v>
@@ -19752,13 +19972,13 @@
       </c>
       <c r="C19" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D19,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>390</v>
+        <v>515</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F19" s="65">
         <v>42040</v>
@@ -19772,22 +19992,22 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B20" s="68" t="str">
+      <c r="B20" s="64" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D20,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C20" s="68" t="str">
+      <c r="C20" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D20,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>385</v>
+        <v>480</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
       <c r="F20" s="65">
-        <v>42040</v>
+        <v>42039</v>
       </c>
       <c r="G20" s="66" t="s">
         <v>8</v>
@@ -19804,16 +20024,16 @@
       </c>
       <c r="C21" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D21,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>381</v>
+        <v>481</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>382</v>
+        <v>511</v>
       </c>
       <c r="F21" s="65">
-        <v>42040</v>
+        <v>42030</v>
       </c>
       <c r="G21" s="66" t="s">
         <v>8</v>
@@ -19824,22 +20044,22 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="64" t="str">
+      <c r="B22" s="68" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D22,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C22" s="64" t="str">
+      <c r="C22" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D22,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>317</v>
+        <v>512</v>
       </c>
       <c r="F22" s="65">
-        <v>42039</v>
+        <v>42040</v>
       </c>
       <c r="G22" s="66" t="s">
         <v>8</v>
@@ -19856,13 +20076,13 @@
       </c>
       <c r="C23" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D23,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>352</v>
+        <v>483</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>319</v>
+        <v>513</v>
       </c>
       <c r="F23" s="65">
         <v>42030</v>
@@ -19876,22 +20096,22 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B24" s="68" t="str">
+      <c r="B24" s="64" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D24,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C24" s="68" t="str">
+      <c r="C24" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D24,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>387</v>
+        <v>资源</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>484</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>388</v>
+        <v>183</v>
       </c>
       <c r="F24" s="65">
-        <v>42040</v>
+        <v>42030</v>
       </c>
       <c r="G24" s="66" t="s">
         <v>8</v>
@@ -19908,13 +20128,13 @@
       </c>
       <c r="C25" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D25,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>322</v>
+        <v>485</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="F25" s="65">
         <v>42030</v>
@@ -19928,19 +20148,19 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B26" s="64" t="str">
+      <c r="B26" s="68" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D26,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C26" s="64" t="str">
+      <c r="C26" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D26,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>185</v>
+        <v>486</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="F26" s="65">
         <v>42030</v>
@@ -19960,13 +20180,13 @@
       </c>
       <c r="C27" s="68" t="str">
         <f>IFERROR(VLOOKUP(MID(D27,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>389</v>
+        <v>487</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>201</v>
+        <v>363</v>
       </c>
       <c r="F27" s="65">
         <v>42030</v>
@@ -19980,25 +20200,33 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B28" s="68" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D28,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C28" s="68" t="str">
+      <c r="B28" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D28,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>376</v>
+        <v>488</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="F28" s="65">
         <v>42030</v>
       </c>
       <c r="G28" s="66" t="s">
         <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -20006,19 +20234,18 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B29" s="68" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D29,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C29" s="68" t="str">
+      <c r="B29" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D29,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>374</v>
+        <v>489</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="F29" s="65">
         <v>42030</v>
@@ -20037,28 +20264,25 @@
       </c>
       <c r="C30" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D30,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>268</v>
+        <v>资源</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>490</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F30" s="65">
-        <v>42030</v>
+        <v>42039</v>
       </c>
       <c r="G30" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I30" t="s">
-        <v>227</v>
-      </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -20071,13 +20295,13 @@
       </c>
       <c r="C31" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D31,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>327</v>
+        <v>491</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="F31" s="65">
         <v>42030</v>
@@ -20085,67 +20309,63 @@
       <c r="G31" s="66" t="s">
         <v>8</v>
       </c>
+      <c r="J31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="67">
+      <c r="A32" s="63">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B32" s="64" t="s">
-        <v>33</v>
+      <c r="B32" s="64" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D32,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
       </c>
       <c r="C32" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D32,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>187</v>
+        <v>资源</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>492</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="F32" s="65">
-        <v>42039</v>
+        <v>42030</v>
       </c>
       <c r="G32" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J32" t="s">
-        <v>230</v>
-      </c>
-      <c r="L32" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="67">
+      <c r="A33" s="63">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>33</v>
+      <c r="B33" s="64" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D33,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>数据</v>
       </c>
       <c r="C33" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D33,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>383</v>
+        <v>493</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F33" s="65">
         <v>42030</v>
       </c>
       <c r="G33" s="66" t="s">
         <v>8</v>
-      </c>
-      <c r="J33" t="s">
-        <v>228</v>
-      </c>
-      <c r="L33" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -20159,13 +20379,13 @@
       </c>
       <c r="C34" s="64" t="str">
         <f>IFERROR(VLOOKUP(MID(D34,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
+        <v>资源</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>219</v>
+        <v>494</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="F34" s="65">
         <v>42030</v>
@@ -20175,54 +20395,63 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="63">
+      <c r="A35" s="43">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B35" s="64" t="str">
+      <c r="B35" s="36" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D35,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C35" s="64" t="str">
+      <c r="C35" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D35,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F35" s="65">
+        <v>资源</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>495</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="34">
         <v>42030</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="35" t="s">
         <v>8</v>
       </c>
+      <c r="I35" t="s">
+        <v>228</v>
+      </c>
+      <c r="J35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="63">
+      <c r="A36" s="43">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B36" s="64" t="str">
+      <c r="B36" s="36" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D36,2),分库!$B:$D,3,FALSE),"")</f>
         <v>数据</v>
       </c>
-      <c r="C36" s="64" t="str">
+      <c r="C36" s="36" t="str">
         <f>IFERROR(VLOOKUP(MID(D36,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="E36" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="F36" s="65">
+        <v>资源</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="F36" s="34">
         <v>42030</v>
       </c>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -20231,19 +20460,17 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B37" s="36" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D37,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C37" s="36" t="str">
-        <f>IFERROR(VLOOKUP(MID(D37,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>275</v>
+      <c r="B37" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>497</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="F37" s="34">
         <v>42030</v>
@@ -20251,14 +20478,11 @@
       <c r="G37" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I37" t="s">
-        <v>233</v>
-      </c>
       <c r="J37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -20266,19 +20490,17 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B38" s="36" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D38,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>数据</v>
-      </c>
-      <c r="C38" s="36" t="str">
-        <f>IFERROR(VLOOKUP(MID(D38,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>资源3D</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>447</v>
+      <c r="B38" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>260</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>448</v>
+        <v>181</v>
       </c>
       <c r="F38" s="34">
         <v>42030</v>
@@ -20286,35 +20508,41 @@
       <c r="G38" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="43">
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A39" s="63">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="34">
-        <v>42030</v>
-      </c>
-      <c r="G39" s="35" t="s">
+      <c r="B39" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="F39" s="65">
+        <v>42090</v>
+      </c>
+      <c r="G39" s="66" t="s">
         <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L39" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -20322,17 +20550,19 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>179</v>
+      <c r="B40" s="36" t="str">
+        <f>IFERROR(VLOOKUP(LEFT(D40,2),分库!$B:$D,3,FALSE),"")</f>
+        <v>缓冲</v>
+      </c>
+      <c r="C40" s="36" t="str">
+        <f>IFERROR(VLOOKUP(MID(D40,4,3),分组!$B:$D,2,FALSE),"")</f>
+        <v>系统</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="F40" s="34">
         <v>42030</v>
@@ -20340,37 +20570,26 @@
       <c r="G40" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J40" t="s">
-        <v>236</v>
-      </c>
-      <c r="L40" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="43">
+      <c r="A41" s="23">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B41" s="36" t="str">
+      <c r="B41" s="1" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D41,2),分库!$B:$D,3,FALSE),"")</f>
-        <v>缓冲</v>
-      </c>
-      <c r="C41" s="36" t="str">
+        <v/>
+      </c>
+      <c r="C41" s="1" t="str">
         <f>IFERROR(VLOOKUP(MID(D41,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v>系统</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="34">
-        <v>42030</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>8</v>
+        <v/>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="24"/>
+      <c r="I41" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -20390,9 +20609,6 @@
       <c r="E42" s="1"/>
       <c r="F42" s="6"/>
       <c r="G42" s="24"/>
-      <c r="I42" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="23">
@@ -20429,6 +20645,12 @@
       <c r="E44" s="1"/>
       <c r="F44" s="6"/>
       <c r="G44" s="24"/>
+      <c r="I44" t="s">
+        <v>230</v>
+      </c>
+      <c r="J44" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="23">
@@ -20447,12 +20669,6 @@
       <c r="E45" s="1"/>
       <c r="F45" s="6"/>
       <c r="G45" s="24"/>
-      <c r="I45" t="s">
-        <v>235</v>
-      </c>
-      <c r="J45" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="23">
@@ -20489,6 +20705,9 @@
       <c r="E47" s="1"/>
       <c r="F47" s="6"/>
       <c r="G47" s="24"/>
+      <c r="I47" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="23">
@@ -20507,7 +20726,10 @@
       <c r="E48" s="1"/>
       <c r="F48" s="6"/>
       <c r="G48" s="24"/>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" t="s">
         <v>189</v>
       </c>
     </row>
@@ -20529,10 +20751,10 @@
       <c r="F49" s="6"/>
       <c r="G49" s="24"/>
       <c r="J49" t="s">
+        <v>186</v>
+      </c>
+      <c r="K49" t="s">
         <v>190</v>
-      </c>
-      <c r="K49" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -20553,10 +20775,10 @@
       <c r="F50" s="6"/>
       <c r="G50" s="24"/>
       <c r="J50" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -20577,66 +20799,42 @@
       <c r="F51" s="6"/>
       <c r="G51" s="24"/>
       <c r="J51" t="s">
+        <v>187</v>
+      </c>
+      <c r="K51" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="K51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="23">
+    </row>
+    <row r="52" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A52" s="25">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B52" s="1" t="str">
+      <c r="B52" s="26" t="str">
         <f>IFERROR(VLOOKUP(LEFT(D52,2),分库!$B:$D,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C52" s="1" t="str">
+      <c r="C52" s="26" t="str">
         <f>IFERROR(VLOOKUP(MID(D52,4,3),分组!$B:$D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="24"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
       <c r="J52" t="s">
+        <v>193</v>
+      </c>
+      <c r="K52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="J53" t="s">
+        <v>188</v>
+      </c>
+      <c r="K53" t="s">
         <v>192</v>
-      </c>
-      <c r="K52" s="61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A53" s="25">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B53" s="26" t="str">
-        <f>IFERROR(VLOOKUP(LEFT(D53,2),分库!$B:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C53" s="26" t="str">
-        <f>IFERROR(VLOOKUP(MID(D53,4,3),分组!$B:$D,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
-      <c r="J53" t="s">
-        <v>198</v>
-      </c>
-      <c r="K53" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="J54" t="s">
-        <v>193</v>
-      </c>
-      <c r="K54" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -20646,44 +20844,43 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D34" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
-    <hyperlink ref="D27" location="'资源3D-模型网格'!A1" display="DT_RS3_MODEL_MESH"/>
-    <hyperlink ref="D32" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
-    <hyperlink ref="D11" location="'资源3D-纹理'!A1" display="DT_RS3_TEXTURE"/>
-    <hyperlink ref="D26" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
-    <hyperlink ref="D37" location="'资源3D-场景'!A1" display="DT_RS3_SCENE"/>
-    <hyperlink ref="D23" location="'资源3D-网格数据流'!A1" display="DT_RS3_MESH_STREAM"/>
+    <hyperlink ref="D32" location="'资源3D-模板'!A1" display="DT_RS3_TEMPLATE"/>
+    <hyperlink ref="D25" location="'资源3D-模型网格'!A1" display="DT_RS3_MODEL_MESH"/>
+    <hyperlink ref="D30" location="'资源3D-材质'!A1" display="DT_RS3_MATERIAL"/>
+    <hyperlink ref="D9" location="'资源3D-纹理'!A1" display="DT_RS3_TEXTURE"/>
+    <hyperlink ref="D24" location="'资源3D-模型'!A1" display="DT_RS3_MODEL"/>
+    <hyperlink ref="D35" location="'资源3D-场景'!A1" display="DT_RS3_SCENE"/>
+    <hyperlink ref="D21" location="'资源3D-网格数据流'!A1" display="DT_RS3_MESH_STREAM"/>
     <hyperlink ref="D4" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D41" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
-    <hyperlink ref="D5" location="'方案-项目'!A1" display="DT_SOL_PROJECT"/>
-    <hyperlink ref="D39" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D40" location="'用户-信息'!A1" display="DT_PSN_USER"/>
-    <hyperlink ref="D10" location="'资源-位图图片'!A1" display="DT_RES_BITMAP_IMAGE"/>
-    <hyperlink ref="D12" location="'资源3D-纹理位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
-    <hyperlink ref="D33" location="'资源3D-材质纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
-    <hyperlink ref="D30" location="'资源3D-主题'!A1" display="DT_RS3_THEME"/>
-    <hyperlink ref="D36" location="'资源3D-模板材质组'!A1" display="DT_RS3_TEMPLATE_MATERIAL_GROUP"/>
-    <hyperlink ref="D38" location="'资源3D-场景主题'!A1" display="DT_RS3_SCENE_THEME"/>
-    <hyperlink ref="D35" location="'资源3D-模板主题'!A1" display="DT_RS3_TEMPLATE_THEME"/>
-    <hyperlink ref="D16" location="'资源3D-动画跟踪'!A1" display="DT_RS3_ANIMATION_TRACK"/>
-    <hyperlink ref="D15" location="'资源3D-动画'!A1" display="DT_RS3_ANIMATION"/>
-    <hyperlink ref="D17" location="'资源3D-动画动作'!A1" display="DT_RS3_ANIMATION_ACTION"/>
-    <hyperlink ref="D21" location="'资源3D-骨骼动画'!A1" display="DT_RS3_SKELETON_ANIMATION"/>
-    <hyperlink ref="D25" location="'资源3D-网格跟踪'!A1" display="DT_RS3_MESH_TRACK"/>
-    <hyperlink ref="D14" location="'资源3D-跟踪'!A1" display="DT_RS3_TRACK"/>
-    <hyperlink ref="D13" location="'资源3D-数据流'!A1" display="DT_RS3_STREAM"/>
-    <hyperlink ref="D22" location="'资源3D-网格'!A1" display="DT_RS3_MESH"/>
-    <hyperlink ref="D31" location="'资源3D-材质组'!A1" display="DT_RS3_MATERIAL_GROUP"/>
-    <hyperlink ref="D24" location="'资源3D-网格蒙皮'!A1" display="DT_RS3_MESH_SKIN"/>
-    <hyperlink ref="D18" location="'资源3D-骨骼'!A1" display="DT_RS3_SKELETON"/>
-    <hyperlink ref="D28" location="'资源3D-模型骨骼'!A1" display="DT_RS3_MODEL_SKELETON"/>
-    <hyperlink ref="D29" location="'资源3D-模型动画'!A1" display="DT_RS3_MODEL_ANIMATION"/>
-    <hyperlink ref="D19" location="'资源3D-骨骼蒙皮'!A1" display="DT_RS3_SKELETON_SKIN"/>
-    <hyperlink ref="D20" location="'资源3D-骨骼蒙皮数据流'!A1" display="DT_RS3_SKELETON_SKIN_STREAM"/>
-    <hyperlink ref="D9" location="'资源-位图'!A1" display="DT_RES_BITMAP"/>
-    <hyperlink ref="D8" location="'资源-信息'!A1" display="DT_RES_RESOURCE"/>
-    <hyperlink ref="D7" location="'资源-目录'!A1" display="DT_RES_CATALOG"/>
-    <hyperlink ref="D6" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
+    <hyperlink ref="D40" location="'系统-会话'!A1" display="CC_SYS_SESSION"/>
+    <hyperlink ref="D39" location="'方案-项目'!A1" display="DT_SOL_PROJECT"/>
+    <hyperlink ref="D37" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D38" location="'用户-信息'!A1" display="DT_PSN_USER"/>
+    <hyperlink ref="D10" location="'资源3D-纹理位图'!A1" display="DT_RS3_TEXTURE_BITMAP"/>
+    <hyperlink ref="D31" location="'资源3D-材质纹理'!A1" display="DT_RS3_MATERIAL_TEXTURE"/>
+    <hyperlink ref="D28" location="'资源3D-主题'!A1" display="DT_RS3_THEME"/>
+    <hyperlink ref="D34" location="'资源3D-模板材质组'!A1" display="DT_RS3_TEMPLATE_MATERIAL_GROUP"/>
+    <hyperlink ref="D36" location="'资源3D-场景主题'!A1" display="DT_RS3_SCENE_THEME"/>
+    <hyperlink ref="D33" location="'资源3D-模板主题'!A1" display="DT_RS3_TEMPLATE_THEME"/>
+    <hyperlink ref="D14" location="'资源3D-动画跟踪'!A1" display="DT_RS3_ANIMATION_TRACK"/>
+    <hyperlink ref="D13" location="'资源3D-动画'!A1" display="DT_RS3_ANIMATION"/>
+    <hyperlink ref="D15" location="'资源3D-动画动作'!A1" display="DT_RS3_ANIMATION_ACTION"/>
+    <hyperlink ref="D19" location="'资源3D-骨骼动画'!A1" display="DT_RS3_SKELETON_ANIMATION"/>
+    <hyperlink ref="D23" location="'资源3D-网格跟踪'!A1" display="DT_RS3_MESH_TRACK"/>
+    <hyperlink ref="D12" location="'资源3D-跟踪'!A1" display="DT_RS3_TRACK"/>
+    <hyperlink ref="D11" location="'资源3D-数据流'!A1" display="DT_RS3_STREAM"/>
+    <hyperlink ref="D20" location="'资源3D-网格'!A1" display="DT_RS3_MESH"/>
+    <hyperlink ref="D29" location="'资源3D-材质组'!A1" display="DT_RS3_MATERIAL_GROUP"/>
+    <hyperlink ref="D22" location="'资源3D-网格蒙皮'!A1" display="DT_RS3_MESH_SKIN"/>
+    <hyperlink ref="D16" location="'资源3D-骨骼'!A1" display="DT_RS3_SKELETON"/>
+    <hyperlink ref="D26" location="'资源3D-模型骨骼'!A1" display="DT_RS3_MODEL_SKELETON"/>
+    <hyperlink ref="D27" location="'资源3D-模型动画'!A1" display="DT_RS3_MODEL_ANIMATION"/>
+    <hyperlink ref="D17" location="'资源3D-骨骼蒙皮'!A1" display="DT_RS3_SKELETON_SKIN"/>
+    <hyperlink ref="D18" location="'资源3D-骨骼蒙皮数据流'!A1" display="DT_RS3_SKELETON_SKIN_STREAM"/>
+    <hyperlink ref="D8" location="'资源-位图'!A1" display="DT_RES_BITMAP"/>
+    <hyperlink ref="D7" location="'资源-信息'!A1" display="DT_RES_RESOURCE"/>
+    <hyperlink ref="D6" location="'资源-目录'!A1" display="DT_RES_CATALOG"/>
+    <hyperlink ref="D5" location="'资源-类型'!A1" display="DT_RES_TYPE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -20765,7 +20962,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>63</v>
@@ -20813,7 +21010,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="48"/>
@@ -20866,7 +21063,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="33">
@@ -20882,10 +21079,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>17</v>
@@ -20906,13 +21103,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="58"/>
@@ -20930,13 +21127,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="58"/>
@@ -21089,7 +21286,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -21106,7 +21303,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -21135,7 +21332,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -21239,7 +21436,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="33">
@@ -21267,7 +21464,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="33">
@@ -21312,7 +21509,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>16</v>
@@ -21321,7 +21518,7 @@
         <v>80</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33">
@@ -21574,7 +21771,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -21591,7 +21788,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -21620,7 +21817,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -21644,7 +21841,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="48"/>
@@ -21712,13 +21909,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="57"/>
@@ -21774,7 +21971,7 @@
         <v>80</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33">
@@ -22027,7 +22224,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -22044,7 +22241,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -22073,7 +22270,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -22097,7 +22294,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="48"/>
@@ -22165,7 +22362,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>58</v>
@@ -22203,7 +22400,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="33">
@@ -22432,7 +22629,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -22449,7 +22646,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -22478,7 +22675,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -22502,7 +22699,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="48"/>
@@ -22570,13 +22767,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="57"/>
@@ -22594,13 +22791,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="57"/>
@@ -22656,7 +22853,7 @@
         <v>80</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33">
@@ -22885,7 +23082,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
@@ -22902,7 +23099,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -22931,7 +23128,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -22955,7 +23152,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="48"/>
@@ -23023,13 +23220,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="57"/>
@@ -23047,13 +23244,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="57"/>
@@ -23071,13 +23268,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="57"/>
@@ -23095,13 +23292,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="57"/>
@@ -23157,7 +23354,7 @@
         <v>80</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="33">
@@ -23199,10 +23396,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D14" s="70" t="s">
         <v>84</v>
@@ -23249,7 +23446,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>83</v>
